--- a/자유수강권/논술1(수강).xlsx
+++ b/자유수강권/논술1(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="87">
   <si>
     <t>주야</t>
   </si>
@@ -184,9 +184,18 @@
     <t>김사랑</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>전보현</t>
+  </si>
+  <si>
     <t>신서현</t>
   </si>
   <si>
+    <t>최예소</t>
+  </si>
+  <si>
     <t>4학년</t>
   </si>
   <si>
@@ -224,9 +233,6 @@
   </si>
   <si>
     <t>권순효</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>홍진형</t>
@@ -637,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1254,13 +1260,13 @@
         <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1277,16 +1283,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1303,16 +1309,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1329,16 +1335,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
@@ -1355,16 +1361,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1381,16 +1387,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1407,13 +1413,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>65</v>
@@ -1433,16 +1439,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1459,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>68</v>
@@ -1485,16 +1491,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>13</v>
@@ -1511,13 +1517,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>71</v>
@@ -1537,13 +1543,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>72</v>
@@ -1563,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
@@ -1589,16 +1595,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -1615,16 +1621,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -1641,16 +1647,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -1667,16 +1673,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -1693,16 +1699,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>13</v>
@@ -1719,13 +1725,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>82</v>
@@ -1745,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>83</v>
@@ -1771,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>84</v>
@@ -1789,6 +1795,58 @@
         <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13.5">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.5">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
